--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="8" t="n">
-        <v>5775</v>
+        <v>10881.07</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>4587</v>
+        <v>8642.678</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="18">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="8" t="n">
-        <v>4576</v>
+        <v>8621.951999999999</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="18">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="8" t="n">
-        <v>6583.5</v>
+        <v>12404.421</v>
       </c>
     </row>
     <row r="36">
@@ -1323,15 +1323,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1323,15 +1323,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1323,15 +1323,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1323,15 +1323,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO ESPIGA DISMAY.xlsx
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="8" t="n">
-        <v>5775</v>
+        <v>13166.095</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>4587</v>
+        <v>10457.641</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="18">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="8" t="n">
-        <v>4576</v>
+        <v>10432.562</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="18">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="8" t="n">
-        <v>6583.5</v>
+        <v>15009.349</v>
       </c>
     </row>
     <row r="36">
@@ -1323,15 +1323,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
